--- a/api/data/PRODUCT.xlsx
+++ b/api/data/PRODUCT.xlsx
@@ -1,229 +1,355 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyojeong/Desktop/spm-master/api/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5261A924-3567-244C-AD45-797951906F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21560" windowHeight="22400" xr2:uid="{6AA597E7-9A33-0247-89CE-823E0E6B963D}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="104">
   <si>
     <t>product_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>product_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>company_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>public</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_price</t>
+  </si>
+  <si>
+    <t>category_name</t>
   </si>
   <si>
     <t>region_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>date_list</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>tags</t>
   </si>
   <si>
     <t>P00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P00004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P00005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P00006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P00007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P00008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P00009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P00010</t>
+  </si>
+  <si>
+    <t>P00011</t>
+  </si>
+  <si>
+    <t>P00012</t>
+  </si>
+  <si>
+    <t>P00013</t>
+  </si>
+  <si>
+    <t>P00014</t>
+  </si>
+  <si>
+    <t>P00015</t>
+  </si>
+  <si>
+    <t>P00016</t>
+  </si>
+  <si>
+    <t>P00017</t>
+  </si>
+  <si>
+    <t>P00018</t>
+  </si>
+  <si>
+    <t>P00019</t>
+  </si>
+  <si>
+    <t>P00020</t>
+  </si>
+  <si>
+    <t>P00021</t>
+  </si>
+  <si>
+    <t>P00022</t>
+  </si>
+  <si>
+    <t>P00023</t>
+  </si>
+  <si>
+    <t>P00024</t>
+  </si>
+  <si>
+    <t>P00025</t>
+  </si>
+  <si>
+    <t>P00026</t>
+  </si>
+  <si>
+    <t>P00027</t>
+  </si>
+  <si>
+    <t>P00028</t>
+  </si>
+  <si>
+    <t>P00029</t>
+  </si>
+  <si>
+    <t>P00030</t>
+  </si>
+  <si>
+    <t>P00031</t>
+  </si>
+  <si>
+    <t>P00032</t>
+  </si>
+  <si>
+    <t>P00033</t>
+  </si>
+  <si>
+    <t>P00034</t>
   </si>
   <si>
     <t>인천 라식/라섹 패키지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울투어와 함께하는 임플란트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>한국 전통문화 체험 + 성형 패키지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>올인원 건강검진 + 서울 여행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>부산여행으로 완성하는 K-beauty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울 대학병원 라식/라섹 패키지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>인천와 함께하는 임플란트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>한국 Kpop 체험 + 성형 패키지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>건강검진과 서울 투어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강검진과 서울 투어 (일주일특가)</t>
+  </si>
+  <si>
+    <t>test_product</t>
+  </si>
+  <si>
+    <t>test_product2</t>
+  </si>
+  <si>
+    <t>test-product</t>
   </si>
   <si>
     <t>123-45-12345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>345-23-12345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>545-23-54656</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>342-54-23456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P00010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강검진과 서울 투어 (일주일특가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-product 상품설명입니다.</t>
+  </si>
+  <si>
+    <t>상세 설명입니다</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>라식/라섹</t>
+  </si>
+  <si>
+    <t>임플란트</t>
+  </si>
+  <si>
+    <t>성형</t>
+  </si>
+  <si>
+    <t>건강검진</t>
   </si>
   <si>
     <t>인천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>부산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라식/라섹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임플란트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강검진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가옵션1(100)|추가옵션2(120)</t>
+  </si>
+  <si>
+    <t>추가(13)|비즈니스석 변경(200)</t>
+  </si>
+  <si>
+    <t>[['2023-12-01','2023-12-20']]</t>
+  </si>
+  <si>
+    <t>[['2023-05-28', '2023-05-28'], ['2023-05-23', '2023-05-27'], ['2023-05-16', '2023-05-18']]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[['2023-05-16', '2023-05-17']]</t>
+  </si>
+  <si>
+    <t>[['2023-05-15', '2023-05-17']]</t>
+  </si>
+  <si>
+    <t>[['2023-05-17', '2023-05-18'], ['2023-05-25', '2023-05-26']]</t>
+  </si>
+  <si>
+    <t>[['2023-05-17', '2023-05-18'], ['2023-05-25', '2023-05-26'], ['2023-05-22', '2023-05-23']]</t>
+  </si>
+  <si>
+    <t>[['2023-05-17', '2023-05-20']]</t>
+  </si>
+  <si>
+    <t>[['2023-05-18', '2023-05-20']]</t>
+  </si>
+  <si>
+    <t>[['2023-05-17', '2023-05-20'], ['2023-05-24', '2023-05-25'], ['2023-05-28', '2023-05-30']]</t>
+  </si>
+  <si>
+    <t>[['2023-05-16', '2023-05-19']]</t>
+  </si>
+  <si>
+    <t>[['2023-05-16', '2023-05-18']]</t>
+  </si>
+  <si>
+    <t>[['2023-05-01', '2023-05-03'], ['2023-05-28', '2023-05-28'], ['2023-05-23', '2023-05-27'], ['2023-05-16', '2023-05-18']]</t>
+  </si>
+  <si>
+    <t>img_1</t>
+  </si>
+  <si>
+    <t>img_2</t>
+  </si>
+  <si>
+    <t>img_3</t>
+  </si>
+  <si>
+    <t>img_4</t>
+  </si>
+  <si>
+    <t>img_5</t>
+  </si>
+  <si>
+    <t>img_6</t>
+  </si>
+  <si>
+    <t>img_7</t>
+  </si>
+  <si>
+    <t>img_8</t>
+  </si>
+  <si>
+    <t>성형,임플란트</t>
+  </si>
+  <si>
+    <t>hi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="KBFGText-Light"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="KBFGText-Light"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -242,38 +368,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -283,44 +413,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -347,32 +477,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -399,24 +511,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,481 +522,1454 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A7DD6A-E7E7-CC48-86F9-37DEDB906A90}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2">
         <v>45658</v>
       </c>
       <c r="G2">
         <v>120</v>
       </c>
-      <c r="H2" t="s">
-        <v>39</v>
+      <c r="H2">
+        <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2">
         <v>45323</v>
       </c>
       <c r="G3">
         <v>210</v>
       </c>
-      <c r="H3" t="s">
-        <v>40</v>
+      <c r="H3">
+        <v>210</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1">
+        <v>67</v>
+      </c>
+      <c r="F4" s="2">
         <v>46082</v>
       </c>
       <c r="G4">
         <v>130</v>
       </c>
-      <c r="H4" t="s">
-        <v>41</v>
+      <c r="H4">
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1">
+        <v>67</v>
+      </c>
+      <c r="F5" s="2">
         <v>45717</v>
       </c>
       <c r="G5">
         <v>105</v>
       </c>
-      <c r="H5" t="s">
-        <v>42</v>
+      <c r="H5">
+        <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2">
         <v>45809</v>
       </c>
       <c r="G6">
         <v>120</v>
       </c>
-      <c r="H6" t="s">
-        <v>41</v>
+      <c r="H6">
+        <v>120</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1">
+        <v>67</v>
+      </c>
+      <c r="F7" s="2">
         <v>47665</v>
       </c>
       <c r="G7">
         <v>104</v>
       </c>
-      <c r="H7" t="s">
-        <v>39</v>
+      <c r="H7">
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1">
+        <v>67</v>
+      </c>
+      <c r="F8" s="2">
         <v>45717</v>
       </c>
       <c r="G8">
         <v>205</v>
       </c>
-      <c r="H8" t="s">
-        <v>40</v>
+      <c r="H8">
+        <v>205</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2">
         <v>45170</v>
       </c>
       <c r="G9">
         <v>135</v>
       </c>
-      <c r="H9" t="s">
-        <v>41</v>
+      <c r="H9">
+        <v>135</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2">
         <v>45261</v>
       </c>
       <c r="G10">
         <v>135</v>
       </c>
-      <c r="H10" t="s">
-        <v>42</v>
+      <c r="H10">
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1">
+        <v>67</v>
+      </c>
+      <c r="F11" s="2">
         <v>45261</v>
       </c>
       <c r="G11">
         <v>435</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>435</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45059.47662125</v>
+      </c>
+      <c r="G12">
+        <v>10000</v>
+      </c>
+      <c r="H12">
+        <v>9000</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45059.60021172454</v>
+      </c>
+      <c r="G13">
+        <v>10000</v>
+      </c>
+      <c r="H13">
+        <v>9000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45059.66836501157</v>
+      </c>
+      <c r="G14">
+        <v>123</v>
+      </c>
+      <c r="H14">
+        <v>122</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45060.62306829861</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45060.63134836806</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45060.63309276621</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45060.63324431713</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45060.63528212963</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45060.65132481481</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45060.65479350695</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45060.65621851852</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45060.66129153935</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45060.66182092592</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45060.67097876158</v>
+      </c>
+      <c r="L25" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45060.67193603009</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" t="s">
+        <v>96</v>
+      </c>
+      <c r="N26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45060.67301828704</v>
+      </c>
+      <c r="L27" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45060.67367663194</v>
+      </c>
+      <c r="L28" t="s">
+        <v>89</v>
+      </c>
+      <c r="M28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45060.67394836806</v>
+      </c>
+      <c r="L29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="I11" t="s">
-        <v>37</v>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45060.6740968287</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45060.67611596065</v>
+      </c>
+      <c r="L31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45060.67958728009</v>
+      </c>
+      <c r="L32" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45060.68453340277</v>
+      </c>
+      <c r="L33" t="s">
+        <v>92</v>
+      </c>
+      <c r="M33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45060.69398483796</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" t="s">
+        <v>92</v>
+      </c>
+      <c r="M34" t="s">
+        <v>98</v>
+      </c>
+      <c r="N34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45060.69591542251</v>
+      </c>
+      <c r="L35" t="s">
+        <v>93</v>
+      </c>
+      <c r="M35" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/api/data/PRODUCT.xlsx
+++ b/api/data/PRODUCT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyojeong/Desktop/spm-master/api/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE647E3F-CCE6-124F-B202-8CA69D57B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D364B62-019C-E447-87FB-A9B2BEC34FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16500" yWindow="500" windowWidth="19340" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
   <si>
     <t>product_id</t>
   </si>
@@ -49,191 +49,206 @@
     <t>category_name</t>
   </si>
   <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>date_list</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>P00001</t>
+  </si>
+  <si>
+    <t>P00002</t>
+  </si>
+  <si>
+    <t>P00003</t>
+  </si>
+  <si>
+    <t>P00004</t>
+  </si>
+  <si>
+    <t>P00005</t>
+  </si>
+  <si>
+    <t>P00006</t>
+  </si>
+  <si>
+    <t>P00007</t>
+  </si>
+  <si>
+    <t>P00008</t>
+  </si>
+  <si>
+    <t>P00009</t>
+  </si>
+  <si>
+    <t>P00010</t>
+  </si>
+  <si>
+    <t>P00011</t>
+  </si>
+  <si>
+    <t>P00012</t>
+  </si>
+  <si>
+    <t>P00013</t>
+  </si>
+  <si>
+    <t>인천 라식/라섹 패키지</t>
+  </si>
+  <si>
+    <t>서울투어와 함께하는 임플란트</t>
+  </si>
+  <si>
+    <t>한국 전통문화 체험 + 성형 패키지</t>
+  </si>
+  <si>
+    <t>올인원 건강검진 + 서울 여행</t>
+  </si>
+  <si>
+    <t>부산여행으로 완성하는 K-beauty</t>
+  </si>
+  <si>
+    <t>서울 대학병원 라식/라섹 패키지</t>
+  </si>
+  <si>
+    <t>인천와 함께하는 임플란트</t>
+  </si>
+  <si>
+    <t>한국 Kpop 체험 + 성형 패키지</t>
+  </si>
+  <si>
+    <t>건강검진과 서울 투어</t>
+  </si>
+  <si>
+    <t>건강검진과 서울 투어 (일주일특가)</t>
+  </si>
+  <si>
+    <t>test_product</t>
+  </si>
+  <si>
+    <t>test_product2</t>
+  </si>
+  <si>
+    <t>123-45-12345</t>
+  </si>
+  <si>
+    <t>345-23-12345</t>
+  </si>
+  <si>
+    <t>545-23-54656</t>
+  </si>
+  <si>
+    <t>342-54-23456</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>test-product 상품설명입니다.</t>
+  </si>
+  <si>
+    <t>상세 설명입니다</t>
+  </si>
+  <si>
+    <t>성형</t>
+  </si>
+  <si>
+    <t>추가옵션1(100)|추가옵션2(120)</t>
+  </si>
+  <si>
+    <t>추가(13)|비즈니스석 변경(200)</t>
+  </si>
+  <si>
+    <t>[['2023-12-01','2023-12-20']]</t>
+  </si>
+  <si>
+    <t>[['2023-05-28', '2023-05-28'], ['2023-05-23', '2023-05-27'], ['2023-05-16', '2023-05-18']]</t>
+  </si>
+  <si>
+    <t>[['2023-05-01', '2023-05-03'], ['2023-05-28', '2023-05-28'], ['2023-05-23', '2023-05-27']]</t>
+  </si>
+  <si>
+    <t>img_1</t>
+  </si>
+  <si>
+    <t>img_2</t>
+  </si>
+  <si>
+    <t>img_3</t>
+  </si>
+  <si>
+    <t>img_4</t>
+  </si>
+  <si>
+    <t>img_5</t>
+  </si>
+  <si>
+    <t>img_6</t>
+  </si>
+  <si>
+    <t>img_7</t>
+  </si>
+  <si>
+    <t>img_8</t>
+  </si>
+  <si>
+    <t>성형,임플란트</t>
+  </si>
+  <si>
     <t>region_name</t>
-  </si>
-  <si>
-    <t>option</t>
-  </si>
-  <si>
-    <t>date_list</t>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>P00001</t>
-  </si>
-  <si>
-    <t>P00002</t>
-  </si>
-  <si>
-    <t>P00003</t>
-  </si>
-  <si>
-    <t>P00004</t>
-  </si>
-  <si>
-    <t>P00005</t>
-  </si>
-  <si>
-    <t>P00006</t>
-  </si>
-  <si>
-    <t>P00007</t>
-  </si>
-  <si>
-    <t>P00008</t>
-  </si>
-  <si>
-    <t>P00009</t>
-  </si>
-  <si>
-    <t>P00010</t>
-  </si>
-  <si>
-    <t>P00011</t>
-  </si>
-  <si>
-    <t>P00012</t>
-  </si>
-  <si>
-    <t>P00013</t>
-  </si>
-  <si>
-    <t>인천 라식/라섹 패키지</t>
-  </si>
-  <si>
-    <t>서울투어와 함께하는 임플란트</t>
-  </si>
-  <si>
-    <t>한국 전통문화 체험 + 성형 패키지</t>
-  </si>
-  <si>
-    <t>올인원 건강검진 + 서울 여행</t>
-  </si>
-  <si>
-    <t>부산여행으로 완성하는 K-beauty</t>
-  </si>
-  <si>
-    <t>서울 대학병원 라식/라섹 패키지</t>
-  </si>
-  <si>
-    <t>인천와 함께하는 임플란트</t>
-  </si>
-  <si>
-    <t>한국 Kpop 체험 + 성형 패키지</t>
-  </si>
-  <si>
-    <t>건강검진과 서울 투어</t>
-  </si>
-  <si>
-    <t>건강검진과 서울 투어 (일주일특가)</t>
-  </si>
-  <si>
-    <t>test_product</t>
-  </si>
-  <si>
-    <t>test_product2</t>
-  </si>
-  <si>
-    <t>123-45-12345</t>
-  </si>
-  <si>
-    <t>345-23-12345</t>
-  </si>
-  <si>
-    <t>545-23-54656</t>
-  </si>
-  <si>
-    <t>342-54-23456</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>test-product 상품설명입니다.</t>
-  </si>
-  <si>
-    <t>상세 설명입니다</t>
-  </si>
-  <si>
-    <t>라식/라섹</t>
-  </si>
-  <si>
-    <t>임플란트</t>
-  </si>
-  <si>
-    <t>성형</t>
-  </si>
-  <si>
-    <t>건강검진</t>
-  </si>
-  <si>
-    <t>인천</t>
-  </si>
-  <si>
-    <t>서울</t>
-  </si>
-  <si>
-    <t>부산</t>
-  </si>
-  <si>
-    <t>추가옵션1(100)|추가옵션2(120)</t>
-  </si>
-  <si>
-    <t>추가(13)|비즈니스석 변경(200)</t>
-  </si>
-  <si>
-    <t>[['2023-12-01','2023-12-20']]</t>
-  </si>
-  <si>
-    <t>[['2023-05-28', '2023-05-28'], ['2023-05-23', '2023-05-27'], ['2023-05-16', '2023-05-18']]</t>
-  </si>
-  <si>
-    <t>[['2023-05-01', '2023-05-03'], ['2023-05-28', '2023-05-28'], ['2023-05-23', '2023-05-27']]</t>
-  </si>
-  <si>
-    <t>img_1</t>
-  </si>
-  <si>
-    <t>img_2</t>
-  </si>
-  <si>
-    <t>img_3</t>
-  </si>
-  <si>
-    <t>img_4</t>
-  </si>
-  <si>
-    <t>img_5</t>
-  </si>
-  <si>
-    <t>img_6</t>
-  </si>
-  <si>
-    <t>img_7</t>
-  </si>
-  <si>
-    <t>img_8</t>
-  </si>
-  <si>
-    <t>성형,임플란트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seoul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>busan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incheon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPLANT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLASTIC SURGERY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDICAL CHECK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON-SURGICAL COSMETIC TREATMENT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASIK,LASEK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +270,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="KBFGText-Light"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -292,12 +313,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -605,11 +629,12 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,36 +667,36 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2">
         <v>45658</v>
@@ -682,37 +707,37 @@
       <c r="H2">
         <v>120</v>
       </c>
-      <c r="I2" t="s">
-        <v>48</v>
+      <c r="I2" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2">
         <v>45323</v>
@@ -723,37 +748,37 @@
       <c r="H3">
         <v>210</v>
       </c>
-      <c r="I3" t="s">
-        <v>49</v>
+      <c r="I3" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2">
         <v>46082</v>
@@ -764,37 +789,37 @@
       <c r="H4">
         <v>130</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>50</v>
       </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2">
         <v>45717</v>
@@ -805,37 +830,37 @@
       <c r="H5">
         <v>105</v>
       </c>
-      <c r="I5" t="s">
-        <v>51</v>
+      <c r="I5" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2">
         <v>45809</v>
@@ -846,37 +871,37 @@
       <c r="H6">
         <v>120</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
         <v>50</v>
       </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>57</v>
       </c>
-      <c r="M6" t="s">
-        <v>64</v>
-      </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2">
         <v>47665</v>
@@ -887,37 +912,37 @@
       <c r="H7">
         <v>104</v>
       </c>
-      <c r="I7" t="s">
-        <v>48</v>
+      <c r="I7" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2">
         <v>45717</v>
@@ -928,37 +953,37 @@
       <c r="H8">
         <v>205</v>
       </c>
-      <c r="I8" t="s">
-        <v>49</v>
+      <c r="I8" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2">
         <v>45170</v>
@@ -969,37 +994,37 @@
       <c r="H9">
         <v>135</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" t="s">
-        <v>57</v>
-      </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2">
         <v>45261</v>
@@ -1010,37 +1035,37 @@
       <c r="H10">
         <v>135</v>
       </c>
-      <c r="I10" t="s">
-        <v>51</v>
+      <c r="I10" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
         <v>53</v>
       </c>
-      <c r="L10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" t="s">
-        <v>60</v>
-      </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="2">
         <v>45261</v>
@@ -1051,37 +1076,37 @@
       <c r="H11">
         <v>435</v>
       </c>
-      <c r="I11" t="s">
-        <v>51</v>
+      <c r="I11" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" t="s">
         <v>61</v>
-      </c>
-      <c r="N11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2">
         <v>45261</v>
@@ -1092,40 +1117,40 @@
       <c r="H12">
         <v>9000</v>
       </c>
-      <c r="I12" t="s">
-        <v>49</v>
+      <c r="I12" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
         <v>55</v>
       </c>
-      <c r="L12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" t="s">
-        <v>62</v>
-      </c>
       <c r="N12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2">
         <v>45261</v>
@@ -1136,40 +1161,40 @@
       <c r="H13">
         <v>9000</v>
       </c>
-      <c r="I13" t="s">
-        <v>50</v>
+      <c r="I13" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" t="s">
         <v>56</v>
       </c>
-      <c r="L13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" t="s">
-        <v>63</v>
-      </c>
       <c r="N13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2">
         <v>45261</v>
@@ -1180,20 +1205,20 @@
       <c r="H14">
         <v>9000</v>
       </c>
-      <c r="I14" t="s">
-        <v>49</v>
+      <c r="I14" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="J14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
         <v>53</v>
       </c>
-      <c r="L14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" t="s">
-        <v>60</v>
-      </c>
       <c r="N14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
